--- a/output/below_50/tRNA-Ala-AGC-8-1.xlsx
+++ b/output/below_50/tRNA-Ala-AGC-8-1.xlsx
@@ -12,102 +12,267 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="88">
   <si>
     <t>chr2</t>
   </si>
   <si>
-    <t>27274104</t>
-  </si>
-  <si>
-    <t>27274127</t>
+    <t>27273568</t>
+  </si>
+  <si>
+    <t>27273591</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>27273588</t>
+  </si>
+  <si>
+    <t>80,80,80</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>GCTGGAGAAAGCGGGGGTCA</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>50% (50)</t>
+  </si>
+  <si>
+    <t>84% (64)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 38, Doench 2016: 50%, Moreno-Mateos: 84%</t>
+  </si>
+  <si>
+    <t>3.55744E+11</t>
+  </si>
+  <si>
+    <t>27273645</t>
+  </si>
+  <si>
+    <t>27273668</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>27274124</t>
+    <t>27273665</t>
   </si>
   <si>
     <t>150,150,150</t>
   </si>
   <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>GCGCTCGCTTAGCATGCGAG</t>
+    <t>GGAGCCTTCGATAGCTCAGT</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>78% (59)</t>
+  </si>
+  <si>
+    <t>25% (33)</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>27273649</t>
+  </si>
+  <si>
+    <t>27273672</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>27273652</t>
+  </si>
+  <si>
+    <t>TCTACCAACTGAGCTATCGA</t>
   </si>
   <si>
     <t>AGG</t>
   </si>
   <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>98% (70)</t>
-  </si>
-  <si>
-    <t>77% (59)</t>
-  </si>
-  <si>
-    <t>74</t>
+    <t>94% (66)</t>
+  </si>
+  <si>
+    <t>8% (20)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>27273653</t>
+  </si>
+  <si>
+    <t>27273676</t>
+  </si>
+  <si>
+    <t>27273673</t>
+  </si>
+  <si>
+    <t>CGATAGCTCAGTTGGTAGAG</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>84% (61)</t>
+  </si>
+  <si>
+    <t>46% (43)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>27273656</t>
+  </si>
+  <si>
+    <t>27273679</t>
+  </si>
+  <si>
+    <t>TAGCTCAGTTGGTAGAGCGG</t>
+  </si>
+  <si>
+    <t>89% (68)</t>
+  </si>
+  <si>
+    <t>27273666</t>
+  </si>
+  <si>
+    <t>27273689</t>
+  </si>
+  <si>
+    <t>27273686</t>
+  </si>
+  <si>
+    <t>GGTAGAGCGGAGGACTGTAG</t>
+  </si>
+  <si>
+    <t>91% (64)</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>66</t>
   </si>
   <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>27274110</t>
-  </si>
-  <si>
-    <t>27274133</t>
-  </si>
-  <si>
-    <t>27274130</t>
-  </si>
-  <si>
-    <t>GCTTAGCATGCGAGAGGTAG</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>84% (64)</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>27274111</t>
-  </si>
-  <si>
-    <t>27274134</t>
-  </si>
-  <si>
-    <t>27274131</t>
-  </si>
-  <si>
-    <t>CTTAGCATGCGAGAGGTAGC</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>52% (46)</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>27273671</t>
+  </si>
+  <si>
+    <t>27273694</t>
+  </si>
+  <si>
+    <t>27273691</t>
+  </si>
+  <si>
+    <t>AGCGGAGGACTGTAGTGGAT</t>
+  </si>
+  <si>
+    <t>59% (53)</t>
+  </si>
+  <si>
+    <t>69% (54)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>27273704</t>
+  </si>
+  <si>
+    <t>27273727</t>
+  </si>
+  <si>
+    <t>27273707</t>
+  </si>
+  <si>
+    <t>GGAATCGAACCAGCGACCTA</t>
+  </si>
+  <si>
+    <t>72% (57)</t>
+  </si>
+  <si>
+    <t>35% (38)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>27273706</t>
+  </si>
+  <si>
+    <t>27273729</t>
+  </si>
+  <si>
+    <t>27273726</t>
+  </si>
+  <si>
+    <t>TTAGGTCGCTGGTTCGATTC</t>
+  </si>
+  <si>
+    <t>25% (41)</t>
+  </si>
+  <si>
+    <t>91% (71)</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>27273714</t>
+  </si>
+  <si>
+    <t>27273737</t>
+  </si>
+  <si>
+    <t>27273734</t>
+  </si>
+  <si>
+    <t>CTGGTTCGATTCCGGCTCGA</t>
+  </si>
+  <si>
+    <t>69% (56)</t>
+  </si>
+  <si>
+    <t>72% (56)</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>63</t>
@@ -155,7 +320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -199,25 +364,25 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -231,7 +396,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -240,43 +405,43 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -284,58 +449,471 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3</v>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
